--- a/va_facility_data_2025-02-20/Petersburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Petersburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Petersburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Petersburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R802fd58e50eb4c1a861c55a82fb71fc4"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4e115c1701d349d3ac3ceabfba77ce99"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcbcc061c938441a2ae75da520ca3fff5"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rbbf0c95beeb7441989f184d8dbda372d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R44eda5c7bc1244e88ac2b04e22e0e607"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R002f502f7d5d4e9ab5a48b4d32f91ada"/>
   </x:sheets>
 </x:workbook>
 </file>
